--- a/CERS0120/串口屏/表格素材.xlsx
+++ b/CERS0120/串口屏/表格素材.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\STM32\STM32_CERS\CERS0120\串口屏\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7377892-3C64-4B93-ABD4-D4C51C7E98B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28797E0-16C9-49EC-A8F0-76D365823A83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11940" xr2:uid="{66BB2B08-830C-4FD0-8F91-5D411F727115}"/>
   </bookViews>
@@ -22,6 +22,94 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+  <si>
+    <t>Date Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Maximum Angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% of Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pain Rating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Max Angle % Difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal          Flexion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal          Extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexion &amp; Extension % Difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal          Left Rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal          Right Rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flexion</t>
+  </si>
+  <si>
+    <t>Extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal     Left Lateral Flexion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal     Right Lateral Flexion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average force（N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROM Tests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROM Tests Reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength Tests Reports</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coefficient of Variation（%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,9 +153,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,12 +469,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Modern No. 20" panose="02070704070505020303" pitchFamily="18" charset="0"/>
                 <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
               </a:rPr>
-              <a:t>左右最大值对比</a:t>
+              <a:t>Cervical Laterl Flexion Summary</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="Modern No. 20" panose="02070704070505020303" pitchFamily="18" charset="0"/>
+              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -414,98 +512,15 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>左</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC01-4B4D-862F-DC079AA116CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>右</c:v>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -514,33 +529,126 @@
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$1:$B$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Normal     Left Lateral Flexion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal     Right Lateral Flexion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$C$3</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$2:$C$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$2:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC01-4B4D-862F-DC079AA116CE}"/>
+              <c16:uniqueId val="{00000000-8C3C-4EFA-8074-C14052B3C36E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$1:$B$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Normal     Left Lateral Flexion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal     Right Lateral Flexion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$3:$C$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$3:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C3C-4EFA-8074-C14052B3C36E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -553,11 +661,9 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
         <c:axId val="669644416"/>
         <c:axId val="676798448"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="669644416"/>
         <c:scaling>
@@ -565,6 +671,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -730,12 +837,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Modern No. 20" panose="02070704070505020303" pitchFamily="18" charset="0"/>
                 <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
               </a:rPr>
-              <a:t>左右最大值对比</a:t>
+              <a:t>Cervical Flexion/Extension Summary</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="Modern No. 20" panose="02070704070505020303" pitchFamily="18" charset="0"/>
+              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -780,32 +891,54 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Normal          Flexion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal          Extension</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$3</c:f>
+              <c:f>Sheet1!$E$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C3C-4EFA-8074-C14052B3C36E}"/>
+              <c16:uniqueId val="{00000000-18A9-4625-9F71-61FBAC0026D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -814,69 +947,48 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Normal          Flexion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal          Extension</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$3</c:f>
+              <c:f>Sheet1!$E$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8C3C-4EFA-8074-C14052B3C36E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8C3C-4EFA-8074-C14052B3C36E}"/>
+              <c16:uniqueId val="{00000001-18A9-4625-9F71-61FBAC0026D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -899,6 +1011,1027 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676798448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676798448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669644416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Modern No. 20" panose="02070704070505020303" pitchFamily="18" charset="0"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>Cervical Rotation Summary</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="Modern No. 20" panose="02070704070505020303" pitchFamily="18" charset="0"/>
+              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Normal          Left Rotation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal          Right Rotation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C419-468C-BA6E-0FAB64A7C889}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Normal          Left Rotation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal          Right Rotation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C419-468C-BA6E-0FAB64A7C889}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="669644416"/>
+        <c:axId val="676798448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="669644416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676798448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676798448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669644416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Modern No. 20" panose="02070704070505020303" pitchFamily="18" charset="0"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>Cervical Laterl Flexion Summary</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="Modern No. 20" panose="02070704070505020303" pitchFamily="18" charset="0"/>
+              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Normal     Left Lateral Flexion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal     Right Lateral Flexion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$42:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05DC-40F7-B76C-9D8BB95AE9E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Normal     Left Lateral Flexion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal     Right Lateral Flexion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$44:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05DC-40F7-B76C-9D8BB95AE9E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="669644416"/>
+        <c:axId val="676798448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="669644416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676798448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676798448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669644416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+                <a:latin typeface="Modern No. 20" panose="02070704070505020303" pitchFamily="18" charset="0"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>Cervical Flexion/Extension Summary</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="Modern No. 20" panose="02070704070505020303" pitchFamily="18" charset="0"/>
+              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$41:$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Normal          Flexion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal          Extension</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5349-4163-A593-644944EB3488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$41:$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Normal          Flexion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Normal          Extension</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$44:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5349-4163-A593-644944EB3488}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="669644416"/>
+        <c:axId val="676798448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="669644416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1150,6 +2283,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -2139,6 +3392,1488 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2644,7 +5379,7 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>437470</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>7483</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2672,23 +5407,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>252411</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>150121</xdr:rowOff>
+      <xdr:rowOff>66204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>648839</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>165826</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1258957</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15708</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5915D7-DF45-4E8A-BE5B-E4B5A8E8DA8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F1A59E-E67E-432E-8587-CC99D9B1AC4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,23 +5445,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>182218</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>670890</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>578646</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>115097</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
+        <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F1A59E-E67E-432E-8587-CC99D9B1AC4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B644A5B-C744-4576-8A5B-71DA88FC4DF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,6 +5476,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>405850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>181417</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5D25EA-A2B7-4DBF-AC23-E639C08FEE35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1267240</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>140004</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991D8126-87DD-4392-A2AC-81D71DB15E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182220</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>140004</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8948B522-33F2-4DAD-A396-2122B5100019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3046,53 +5895,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72D351E-6B7F-4866-B875-2A5245BC7A33}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="24.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>80</v>
+      </c>
+      <c r="L2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>180</v>
-      </c>
-      <c r="B2">
-        <v>180</v>
-      </c>
-      <c r="C2">
-        <v>180</v>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>180</v>
-      </c>
-      <c r="B3">
-        <v>180</v>
-      </c>
-      <c r="C3">
-        <v>180</v>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="K38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>113</v>
+      </c>
+      <c r="B42">
+        <v>113</v>
+      </c>
+      <c r="E42">
+        <v>113</v>
+      </c>
+      <c r="F42">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>91</v>
+      </c>
+      <c r="B43">
+        <v>91</v>
+      </c>
+      <c r="E43">
+        <v>91</v>
+      </c>
+      <c r="F43">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>200</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+      <c r="E44">
+        <v>300</v>
+      </c>
+      <c r="F44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>0</v>
       </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="F68:G68"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
